--- a/biology/Biologie cellulaire et moléculaire/Pleiotrophine/Pleiotrophine.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Pleiotrophine/Pleiotrophine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pleiotrophine est une protéine de type facteur de croissance qui a une forte affinité pour l'héparine. Son gène est le PTN situé sur le chromosome 7 humain.
 Ses autres noms sont HBBM (pour « heparin-binding brain mitogen »), HBGF-8 (pour « heparin-binding growth factor 8 ») ou NEGF1 (pour « neurite growth-promoting factor 1 »), HARP (pour « heparin affinity regulatory peptide » ou HB-GAM (pour « heparin binding growth associated molecule »).
@@ -512,9 +524,11 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle favorise l'expansion des cellules souches hématopoïétiques[5] et le maintien de ces dernières dans la moelle osseuse[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle favorise l'expansion des cellules souches hématopoïétiques et le maintien de ces dernières dans la moelle osseuse.
 </t>
         </is>
       </c>
